--- a/Henry/2021_stats.xlsx
+++ b/Henry/2021_stats.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrywycislo/DataClass/Runtime-Terror/Henry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C46E340-4CF3-874C-A0C5-780BC265538A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687B6939-3E3A-E94D-81B9-CE5244F64B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15640" yWindow="5380" windowWidth="28040" windowHeight="17440" xr2:uid="{88EDA7C9-4A70-5941-9336-1DFA69036CDC}"/>
+    <workbookView xWindow="16500" yWindow="6240" windowWidth="28040" windowHeight="17440" activeTab="4" xr2:uid="{88EDA7C9-4A70-5941-9336-1DFA69036CDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Total" sheetId="1" r:id="rId1"/>
     <sheet name="Quarterbacks" sheetId="2" r:id="rId2"/>
     <sheet name="RunningBacks" sheetId="3" r:id="rId3"/>
     <sheet name="WideReciever" sheetId="4" r:id="rId4"/>
+    <sheet name="Notes" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Quarterbacks!$A$1:$S$1</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="627">
   <si>
     <t>Josh Allen</t>
   </si>
@@ -1827,6 +1831,96 @@
   <si>
     <t>FL</t>
   </si>
+  <si>
+    <t xml:space="preserve">Possible reports to make </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anderson's idea to show trends using </t>
+  </si>
+  <si>
+    <t>Players with the highest points in 2021</t>
+  </si>
+  <si>
+    <t>How to apply machine learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rank all players for 2022 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show average number of points by position </t>
+  </si>
+  <si>
+    <t>A decision tree to predict if the player will be successful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logistic regression - target variable is yes or no </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nural net </t>
+  </si>
+  <si>
+    <t>which players will score more than 15 points in 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find all star players using model </t>
+  </si>
+  <si>
+    <t>Identify players that may be successful in 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">possible look at number of completed plasses by quarterback </t>
+  </si>
+  <si>
+    <t>Quarterback measures</t>
+  </si>
+  <si>
+    <t>number of interceptions</t>
+  </si>
+  <si>
+    <t>yards per touch down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">completions per attempt </t>
+  </si>
+  <si>
+    <t>number of fumbles</t>
+  </si>
+  <si>
+    <t>Running Back measures</t>
+  </si>
+  <si>
+    <t>number of attempts per fumble</t>
+  </si>
+  <si>
+    <t>yards rushing</t>
+  </si>
+  <si>
+    <t>yards receiving</t>
+  </si>
+  <si>
+    <t>Widereceiver</t>
+  </si>
+  <si>
+    <t>yards per touchdown</t>
+  </si>
+  <si>
+    <t>number of receptions</t>
+  </si>
+  <si>
+    <t>yards per reception</t>
+  </si>
+  <si>
+    <t>possible top 10 for each position</t>
+  </si>
+  <si>
+    <t>possible use tensor flow to look at all of these values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">possible build leaflet app to report the data </t>
+  </si>
+  <si>
+    <t>possible pick the best player for 2022</t>
+  </si>
 </sst>
 </file>
 
@@ -2199,8 +2293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A8714F-0D83-7F4B-AC74-0701CEC517E6}">
   <dimension ref="A1:S587"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:S1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36867,10 +36961,13 @@
   <dimension ref="A1:S84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:S85"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -41829,6 +41926,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S1" xr:uid="{BE30C2BC-E09D-1E49-9C04-2B22A625CC8D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -41838,7 +41936,7 @@
   <dimension ref="A1:S164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:S165"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -51529,7 +51627,7 @@
   <dimension ref="A1:S225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:S226"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -64812,4 +64910,184 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E83BF2-1C19-7B4C-B079-219DB34B3818}">
+  <dimension ref="A2:B41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>626</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>